--- a/www/产品质量基础表.xlsx
+++ b/www/产品质量基础表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\棱星数据\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBFB80AA-5BEE-4FB8-A0E9-C692BC718600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B245097A-466B-4F88-91E9-2ECBDA6707C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FDCD9CB6-A405-411F-A0E7-5AF35E8FD4A3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
   <si>
     <t>物料编码</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -157,6 +157,10 @@
   </si>
   <si>
     <t>test4</t>
+  </si>
+  <si>
+    <t>客户名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -546,308 +550,313 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C0C5C4-1301-426A-AFF6-5DDF6E7E8A4F}">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3">
+      <c r="E2" s="3">
         <v>1600</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>1920</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>1280</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>78</v>
       </c>
-      <c r="J2" s="5">
+      <c r="K2" s="5">
         <v>85.800000000000011</v>
       </c>
-      <c r="K2" s="5">
+      <c r="L2" s="5">
         <v>70.2</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" s="2" t="s">
+      <c r="N2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3">
+      <c r="E3" s="3">
         <v>1900</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>2280</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>1520</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>80</v>
       </c>
-      <c r="J3" s="5">
+      <c r="K3" s="5">
         <v>88</v>
       </c>
-      <c r="K3" s="5">
+      <c r="L3" s="5">
         <v>72</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="O3" s="2" t="s">
+      <c r="N3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="3">
+      <c r="E4" s="3">
         <v>9300</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>11160</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>7440</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>85</v>
       </c>
-      <c r="J4" s="5">
+      <c r="K4" s="5">
         <v>93.500000000000014</v>
       </c>
-      <c r="K4" s="5">
+      <c r="L4" s="5">
         <v>76.5</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="O4" s="2" t="s">
+      <c r="N4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="3">
+      <c r="E5" s="3">
         <v>5300</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>6360</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>4240</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>72</v>
       </c>
-      <c r="J5" s="5">
+      <c r="K5" s="5">
         <v>79.2</v>
       </c>
-      <c r="K5" s="5">
+      <c r="L5" s="5">
         <v>64.8</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="O5" s="2" t="s">
+      <c r="N5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="3">
+      <c r="E6" s="3">
         <v>5600</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>6720</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>4480</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>107</v>
       </c>
-      <c r="J6" s="5">
+      <c r="K6" s="5">
         <v>117.7</v>
       </c>
-      <c r="K6" s="5">
+      <c r="L6" s="5">
         <v>96.3</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="M6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="O6" s="2" t="s">
+      <c r="N6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="Q6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
